--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.1/sum_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-0.1/sum_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="128">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,216 +58,150 @@
     <t>dangerous</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>creepy</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>negative</t>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>fake</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>insane</t>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>fucked</t>
   </si>
   <si>
     <t>guilty</t>
   </si>
   <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>annoying</t>
-  </si>
-  <si>
-    <t>toxic</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>terrified</t>
-  </si>
-  <si>
-    <t>confusing</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>unnecessary</t>
-  </si>
-  <si>
     <t>least</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>frustrating</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>terribly</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>different</t>
+  </si>
+  <si>
+    <t>anxious</t>
   </si>
   <si>
     <t>afraid</t>
   </si>
   <si>
-    <t>hated</t>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>ironically</t>
   </si>
   <si>
     <t>sad</t>
   </si>
   <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>destructive</t>
-  </si>
-  <si>
-    <t>ugly</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>painful</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>badly</t>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>ass</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
@@ -283,250 +217,184 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>excellent</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>huge</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>incredible</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>fascinating</t>
+    <t>watch</t>
   </si>
   <si>
     <t>live</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>real</t>
+  </si>
+  <si>
+    <t>ab</t>
   </si>
   <si>
     <t>2020</t>
   </si>
   <si>
-    <t>goals</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>accurate</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>biggest</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>genuinely</t>
+  </si>
+  <si>
+    <t>anymore</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>absolutely</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>waiting</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>sober</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>soc</t>
+  </si>
+  <si>
+    <t>funny</t>
   </si>
   <si>
     <t>faster</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>outstanding</t>
-  </si>
-  <si>
-    <t>liked</t>
-  </si>
-  <si>
-    <t>promote</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>unprecedented</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
     <t>sharing</t>
   </si>
   <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>strongly</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>pu</t>
-  </si>
-  <si>
-    <t>tool</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>engagement</t>
-  </si>
-  <si>
-    <t>hooked</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>necessary</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>started</t>
-  </si>
-  <si>
-    <t>media</t>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>dear</t>
-  </si>
-  <si>
-    <t>available</t>
   </si>
   <si>
     <t>positive</t>
@@ -887,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q93"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -898,7 +766,7 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -956,13 +824,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1655405405405405</v>
+        <v>0.181651376146789</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -974,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>0.1081081081081081</v>
+        <v>0.1127450980392157</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -998,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1050</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1006,13 +874,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.1114864864864865</v>
+        <v>0.1247706422018349</v>
       </c>
       <c r="C4">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1024,19 +892,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>0.09234234234234234</v>
+        <v>0.1053921568627451</v>
       </c>
       <c r="L4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1048,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1056,13 +924,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1064189189189189</v>
+        <v>0.1119266055045872</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1074,19 +942,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="K5">
-        <v>0.09009009009009009</v>
+        <v>0.1004901960784314</v>
       </c>
       <c r="L5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1098,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1106,13 +974,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04560810810810811</v>
+        <v>0.05321100917431193</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1124,19 +992,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="K6">
-        <v>0.08333333333333333</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1148,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1156,49 +1024,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04391891891891892</v>
+        <v>0.04403669724770642</v>
       </c>
       <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="L7">
+        <v>34</v>
+      </c>
+      <c r="M7">
+        <v>34</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>26</v>
-      </c>
-      <c r="D7">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7">
-        <v>0.06756756756756757</v>
-      </c>
-      <c r="L7">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>30</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1206,13 +1074,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.02871621621621622</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1224,19 +1092,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="K8">
-        <v>0.05855855855855856</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="L8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1248,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1256,13 +1124,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02533783783783784</v>
+        <v>0.02568807339449541</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1274,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="K9">
-        <v>0.04054054054054054</v>
+        <v>0.04411764705882353</v>
       </c>
       <c r="L9">
         <v>18</v>
@@ -1306,38 +1174,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02533783783783784</v>
+        <v>0.02568807339449541</v>
       </c>
       <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <v>0.03676470588235294</v>
+      </c>
+      <c r="L10">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>15</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10">
-        <v>0.03603603603603604</v>
-      </c>
-      <c r="L10">
-        <v>16</v>
-      </c>
-      <c r="M10">
-        <v>16</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1348,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1356,13 +1224,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02195945945945946</v>
+        <v>0.02201834862385321</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1374,13 +1242,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="K11">
-        <v>0.02252252252252252</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1406,13 +1274,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.02195945945945946</v>
+        <v>0.02018348623853211</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1424,19 +1292,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="K12">
-        <v>0.02027027027027027</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1448,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1456,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01858108108108108</v>
+        <v>0.02018348623853211</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -1474,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="K13">
-        <v>0.01801801801801802</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1498,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>658</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1506,13 +1374,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01689189189189189</v>
+        <v>0.02018348623853211</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1524,19 +1392,19 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>28</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14">
+        <v>0.01470588235294118</v>
+      </c>
+      <c r="L14">
         <v>6</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K14">
-        <v>0.01801801801801802</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
       <c r="M14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1548,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1556,7 +1424,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01689189189189189</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -1574,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="K15">
-        <v>0.01576576576576576</v>
+        <v>0.01225490196078431</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1598,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1606,13 +1474,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0152027027027027</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1624,19 +1492,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="K16">
-        <v>0.01576576576576576</v>
+        <v>0.01225490196078431</v>
       </c>
       <c r="L16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1648,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1656,13 +1524,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.0152027027027027</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1674,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>0.01126126126126126</v>
+        <v>0.01225490196078431</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -1698,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1706,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.0152027027027027</v>
+        <v>0.01651376146788991</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -1724,19 +1592,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="K18">
-        <v>0.01126126126126126</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1748,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1756,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01351351351351351</v>
+        <v>0.01467889908256881</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1774,19 +1642,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="K19">
-        <v>0.01126126126126126</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1798,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>278</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1806,7 +1674,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01351351351351351</v>
+        <v>0.01467889908256881</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1827,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="K20">
-        <v>0.009009009009009009</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="L20">
         <v>4</v>
@@ -1848,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1856,7 +1724,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01351351351351351</v>
+        <v>0.01467889908256881</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -1874,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="K21">
-        <v>0.009009009009009009</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="L21">
         <v>4</v>
@@ -1898,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1906,13 +1774,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.01351351351351351</v>
+        <v>0.01100917431192661</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1924,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="K22">
-        <v>0.009009009009009009</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="L22">
         <v>4</v>
@@ -1948,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1956,13 +1824,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.01182432432432432</v>
+        <v>0.01100917431192661</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1974,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="K23">
-        <v>0.009009009009009009</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="L23">
         <v>4</v>
@@ -1998,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -2006,13 +1874,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.01182432432432432</v>
+        <v>0.01100917431192661</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2024,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="K24">
-        <v>0.006756756756756757</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2048,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2056,13 +1924,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01182432432432432</v>
+        <v>0.01100917431192661</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2074,13 +1942,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="K25">
-        <v>0.006756756756756757</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="L25">
         <v>3</v>
@@ -2098,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2106,13 +1974,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01182432432432432</v>
+        <v>0.01100917431192661</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2124,13 +1992,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="K26">
-        <v>0.006756756756756757</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2148,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2156,7 +2024,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01013513513513514</v>
+        <v>0.01100917431192661</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -2174,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="K27">
-        <v>0.006756756756756757</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="L27">
         <v>3</v>
@@ -2198,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2206,7 +2074,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01013513513513514</v>
+        <v>0.01100917431192661</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -2224,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="K28">
-        <v>0.006756756756756757</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="L28">
         <v>3</v>
@@ -2256,7 +2124,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01013513513513514</v>
+        <v>0.01100917431192661</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -2274,13 +2142,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="K29">
-        <v>0.006756756756756757</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="L29">
         <v>3</v>
@@ -2298,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2306,13 +2174,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01013513513513514</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2324,13 +2192,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="K30">
-        <v>0.006756756756756757</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="L30">
         <v>3</v>
@@ -2348,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2356,31 +2224,31 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01013513513513514</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
         <v>6</v>
       </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
       <c r="J31" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="K31">
-        <v>0.006756756756756757</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -2398,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2406,13 +2274,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01013513513513514</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2424,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="K32">
-        <v>0.006756756756756757</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="L32">
         <v>3</v>
@@ -2448,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2456,7 +2324,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.008445945945945946</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -2474,19 +2342,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="K33">
-        <v>0.006756756756756757</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2498,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2506,7 +2374,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.008445945945945946</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -2527,16 +2395,16 @@
         <v>16</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="K34">
-        <v>0.006756756756756757</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2548,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2556,13 +2424,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.008445945945945946</v>
+        <v>0.007339449541284404</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2574,19 +2442,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="K35">
-        <v>0.006756756756756757</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2598,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>68</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2606,13 +2474,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.008445945945945946</v>
+        <v>0.007339449541284404</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2624,19 +2492,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="K36">
-        <v>0.006756756756756757</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2648,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2656,13 +2524,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.008445945945945946</v>
+        <v>0.007339449541284404</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2674,19 +2542,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="K37">
-        <v>0.006756756756756757</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2698,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2706,13 +2574,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006756756756756757</v>
+        <v>0.005504587155963303</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2724,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="K38">
-        <v>0.004504504504504504</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="L38">
         <v>2</v>
@@ -2748,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2756,13 +2624,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006756756756756757</v>
+        <v>0.005504587155963303</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2774,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="K39">
-        <v>0.004504504504504504</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -2798,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2806,13 +2674,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006756756756756757</v>
+        <v>0.005504587155963303</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2824,13 +2692,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="K40">
-        <v>0.004504504504504504</v>
+        <v>0.004901960784313725</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -2848,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2856,13 +2724,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.006756756756756757</v>
+        <v>0.005504587155963303</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2874,19 +2742,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="K41">
-        <v>0.004504504504504504</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2898,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2906,7 +2774,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005067567567567568</v>
+        <v>0.005504587155963303</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -2924,19 +2792,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="K42">
-        <v>0.004504504504504504</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2948,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2956,7 +2824,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005067567567567568</v>
+        <v>0.005504587155963303</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -2974,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="K43">
-        <v>0.004504504504504504</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2998,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3006,13 +2874,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005067567567567568</v>
+        <v>0.003669724770642202</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3024,19 +2892,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="K44">
-        <v>0.004504504504504504</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3048,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3056,13 +2924,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005067567567567568</v>
+        <v>0.001834862385321101</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3074,19 +2942,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="K45">
-        <v>0.004504504504504504</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3098,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>93</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3106,13 +2974,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003378378378378379</v>
+        <v>0.001834862385321101</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3124,19 +2992,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="K46">
-        <v>0.004504504504504504</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3148,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3156,13 +3024,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.003378378378378379</v>
+        <v>0.001834862385321101</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3174,19 +3042,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="K47">
-        <v>0.004504504504504504</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3198,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3206,13 +3074,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.003378378378378379</v>
+        <v>0.001834862385321101</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3224,13 +3092,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="K48">
-        <v>0.002252252252252252</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -3248,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3256,7 +3124,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.001689189189189189</v>
+        <v>0.001834862385321101</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3274,13 +3142,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="K49">
-        <v>0.002252252252252252</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L49">
         <v>1</v>
@@ -3298,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3306,7 +3174,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.001689189189189189</v>
+        <v>0.001834862385321101</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3324,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="K50">
-        <v>0.002252252252252252</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L50">
         <v>1</v>
@@ -3348,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3356,7 +3224,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.001689189189189189</v>
+        <v>0.001834862385321101</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3374,13 +3242,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="K51">
-        <v>0.002252252252252252</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -3398,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3406,7 +3274,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.001689189189189189</v>
+        <v>0.001834862385321101</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3424,13 +3292,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="K52">
-        <v>0.002252252252252252</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -3448,39 +3316,15 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>13</v>
-      </c>
       <c r="J53" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="K53">
-        <v>0.002252252252252252</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L53">
         <v>1</v>
@@ -3498,39 +3342,15 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>3</v>
-      </c>
       <c r="J54" s="1" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="K54">
-        <v>0.002252252252252252</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L54">
         <v>1</v>
@@ -3548,689 +3368,353 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>136</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="1" t="s">
+      <c r="J55" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K55">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="J56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K57">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="J58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K58">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="J59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K59">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="J60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K60">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="J61" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K61">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="J62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K62">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="J63" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K63">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="J64" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K64">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K65">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K66">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
         <v>60</v>
       </c>
-      <c r="B55">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>18</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K55">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>21</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K56">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K67">
+        <v>0.002450980392156863</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q67">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>34</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K57">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>18</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K58">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K59">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>3</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="K60">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60">
-        <v>1</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="K61">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>2</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K62">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62">
-        <v>1</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="A63" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K63">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="A64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K64">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17">
-      <c r="A65" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>11</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K65">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>4</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K66">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K67">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
+    <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="K68">
-        <v>0.002252252252252252</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L68">
         <v>1</v>
@@ -4248,39 +3732,15 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="K69">
-        <v>0.002252252252252252</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L69">
         <v>1</v>
@@ -4298,39 +3758,15 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17">
-      <c r="A70" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="K70">
-        <v>0.002252252252252252</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L70">
         <v>1</v>
@@ -4348,39 +3784,15 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17">
-      <c r="A71" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>8</v>
-      </c>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="K71">
-        <v>0.002252252252252252</v>
+        <v>0.002450980392156863</v>
       </c>
       <c r="L71">
         <v>1</v>
@@ -4398,651 +3810,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17">
-      <c r="A72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="K72">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17">
-      <c r="A73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K73">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17">
-      <c r="A74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74">
-        <v>0.001689189189189189</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>3</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K74">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74">
         <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17">
-      <c r="J75" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="K75">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17">
-      <c r="J76" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="K76">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17">
-      <c r="J77" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K77">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17">
-      <c r="J78" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K78">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17">
-      <c r="J79" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K79">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="J80" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="K80">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="10:17">
-      <c r="J81" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K81">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K82">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K83">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K84">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K85">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K86">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86">
-        <v>1</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K87">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87">
-        <v>1</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K88">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88">
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K89">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L89">
-        <v>1</v>
-      </c>
-      <c r="M89">
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K90">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q90">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="10:17">
-      <c r="J91" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K91">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91">
-        <v>1</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="92" spans="10:17">
-      <c r="J92" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K92">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L92">
-        <v>1</v>
-      </c>
-      <c r="M92">
-        <v>1</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="10:17">
-      <c r="J93" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K93">
-        <v>0.002252252252252252</v>
-      </c>
-      <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93">
-        <v>1</v>
-      </c>
-      <c r="N93">
-        <v>1</v>
-      </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q93">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
